--- a/DataGenerator/XLSXS/CharData.xlsx
+++ b/DataGenerator/XLSXS/CharData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BC90A0-CF6E-46E6-97E5-1142153C265A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6110EB96-8825-4A12-BB15-97040E16DC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,12 +92,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>ECharTier</t>
-  </si>
-  <si>
-    <t>ESynergy</t>
   </si>
   <si>
     <t>long[]</t>
@@ -334,6 +328,14 @@
   </si>
   <si>
     <t>Monster</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>eCharTier</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>eSynergy</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -673,7 +675,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -722,10 +724,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -760,10 +762,10 @@
         <v>21</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -774,19 +776,19 @@
         <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>22</v>
@@ -795,385 +797,385 @@
         <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -1182,20 +1184,20 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -1204,16 +1206,13 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D17" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:H17" xr:uid="{00000000-0002-0000-0000-000001000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D17 F4:H17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/DataGenerator/XLSXS/CharData.xlsx
+++ b/DataGenerator/XLSXS/CharData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6110EB96-8825-4A12-BB15-97040E16DC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F95B84-B742-4A61-90A7-598F085556EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
   <si>
     <t>charID</t>
   </si>
@@ -34,9 +34,6 @@
     <t>캐릭터 등급</t>
   </si>
   <si>
-    <t>기본스펙</t>
-  </si>
-  <si>
     <t>시너지1</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>charTier</t>
   </si>
   <si>
-    <t>specIndex</t>
-  </si>
-  <si>
     <t>synergy1</t>
   </si>
   <si>
@@ -79,12 +73,6 @@
     <t>synergy3</t>
   </si>
   <si>
-    <t>autoAttack</t>
-  </si>
-  <si>
-    <t>skillAttack</t>
-  </si>
-  <si>
     <t>func</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>long[]</t>
   </si>
   <si>
-    <t>0000000</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
@@ -109,42 +94,21 @@
     <t>NORMAL</t>
   </si>
   <si>
-    <t>0100000</t>
-  </si>
-  <si>
     <t>LAPLACIAN</t>
   </si>
   <si>
     <t>SWORD</t>
   </si>
   <si>
-    <t>0500000</t>
-  </si>
-  <si>
-    <t>0500002</t>
-  </si>
-  <si>
-    <t>0000001</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
     <t>K_Prefab</t>
   </si>
   <si>
-    <t>0100001</t>
-  </si>
-  <si>
     <t>MAGIC_WAND</t>
   </si>
   <si>
-    <t>0500001</t>
-  </si>
-  <si>
-    <t>0000002</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
@@ -154,15 +118,9 @@
     <t>UNIQUE</t>
   </si>
   <si>
-    <t>0100002</t>
-  </si>
-  <si>
     <t>SHIELD</t>
   </si>
   <si>
-    <t>0000003</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -172,116 +130,76 @@
     <t>RARE</t>
   </si>
   <si>
-    <t>0100003</t>
-  </si>
-  <si>
     <t>RANGED</t>
   </si>
   <si>
-    <t>0000004</t>
-  </si>
-  <si>
     <t>비비안</t>
   </si>
   <si>
-    <t>0100004</t>
-  </si>
-  <si>
     <t>TIMER</t>
   </si>
   <si>
-    <t>0000005</t>
-  </si>
-  <si>
     <t>그레이스</t>
   </si>
   <si>
     <t>EPIC</t>
   </si>
   <si>
-    <t>0100005</t>
-  </si>
-  <si>
-    <t>0000006</t>
-  </si>
-  <si>
     <t>샤나</t>
   </si>
   <si>
-    <t>0100006</t>
-  </si>
-  <si>
     <t>DUAL_BALDE</t>
   </si>
   <si>
-    <t>0000007</t>
-  </si>
-  <si>
     <t>엠마</t>
   </si>
   <si>
-    <t>0100007</t>
-  </si>
-  <si>
-    <t>0000008</t>
-  </si>
-  <si>
     <t>베이</t>
   </si>
   <si>
-    <t>0100008</t>
-  </si>
-  <si>
     <t>QUANTUM_WASHER</t>
   </si>
   <si>
-    <t>0000009</t>
-  </si>
-  <si>
     <t>키</t>
   </si>
   <si>
-    <t>0100009</t>
-  </si>
-  <si>
-    <t>0000010</t>
-  </si>
-  <si>
     <t>럼</t>
   </si>
   <si>
-    <t>0100010</t>
-  </si>
-  <si>
-    <t>0000011</t>
-  </si>
-  <si>
     <t>마이</t>
   </si>
   <si>
-    <t>0100011</t>
-  </si>
-  <si>
-    <t>0000012</t>
-  </si>
-  <si>
-    <t>고블린</t>
-  </si>
-  <si>
-    <t>0000013</t>
-  </si>
-  <si>
-    <t>바알</t>
-  </si>
-  <si>
-    <t>eCharType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>기본스텟</t>
+  </si>
+  <si>
+    <t>statsIndex</t>
+  </si>
+  <si>
+    <t>skill1</t>
+  </si>
+  <si>
+    <t>skill2</t>
+  </si>
+  <si>
+    <t>전투력측정기M</t>
+  </si>
+  <si>
+    <t>전투력측정기R</t>
+  </si>
+  <si>
+    <t>방어봇 D1</t>
+  </si>
+  <si>
+    <t>공격봇 A1</t>
+  </si>
+  <si>
+    <t>지원봇 S1</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -291,7 +209,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -300,7 +218,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -310,33 +228,37 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> string</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eCharTier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eSynergy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eCharType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>charType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Player</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Monster</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>eCharTier</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>eSynergy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -353,21 +275,8 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -378,37 +287,37 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
-        <bgColor rgb="FFB4C6E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor rgb="FFD9E1F2"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -418,18 +327,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFD9D2E9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -437,23 +364,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -672,10 +637,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -689,533 +654,635 @@
     <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>100</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E4" s="5">
+        <v>100100</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5">
+        <v>500100</v>
+      </c>
+      <c r="J4" s="5">
+        <v>500110</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>200</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="E5" s="5">
+        <v>100200</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="5">
+        <v>500200</v>
+      </c>
+      <c r="J5" s="5">
+        <v>500210</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>300</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6" t="s">
+      <c r="E6" s="5">
+        <v>100300</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="5">
+        <v>500300</v>
+      </c>
+      <c r="J6" s="5">
+        <v>500310</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>400</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="E7" s="5">
+        <v>100400</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="5">
+        <v>500400</v>
+      </c>
+      <c r="J7" s="5">
+        <v>500410</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>500</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>54</v>
+        <v>23</v>
+      </c>
+      <c r="E8" s="7">
+        <v>100500</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="8"/>
+      <c r="I8" s="7">
+        <v>500500</v>
+      </c>
+      <c r="J8" s="7">
+        <v>500510</v>
+      </c>
       <c r="K8" s="8"/>
-      <c r="L8" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>56</v>
+      <c r="L8" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>600</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>40</v>
+      </c>
+      <c r="E9" s="7">
+        <v>100600</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="8"/>
+      <c r="I9" s="7">
+        <v>500600</v>
+      </c>
+      <c r="J9" s="7">
+        <v>500610</v>
+      </c>
       <c r="K9" s="8"/>
-      <c r="L9" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>60</v>
+      <c r="L9" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>700</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>35</v>
+      </c>
+      <c r="E10" s="7">
+        <v>100700</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7">
+        <v>500700</v>
+      </c>
+      <c r="J10" s="7">
+        <v>500710</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>64</v>
+    </row>
+    <row r="11" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>800</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>31</v>
+      </c>
+      <c r="E11" s="7">
+        <v>100800</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="8"/>
+      <c r="I11" s="7">
+        <v>500800</v>
+      </c>
+      <c r="J11" s="7">
+        <v>500810</v>
+      </c>
       <c r="K11" s="8"/>
-      <c r="L11" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="L11" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>900</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="E12" s="5">
+        <v>100900</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5">
+        <v>500200</v>
+      </c>
+      <c r="J12" s="5">
+        <v>500910</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4" t="s">
+    </row>
+    <row r="13" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="5">
+        <v>101000</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5">
+        <v>500201</v>
+      </c>
+      <c r="J13" s="5">
+        <v>501010</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>1100</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5">
+        <v>101100</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5">
+        <v>500202</v>
+      </c>
+      <c r="J14" s="5">
+        <v>501110</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>1200</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="5">
+        <v>101200</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>80</v>
+      <c r="H15" s="6"/>
+      <c r="I15" s="5">
+        <v>500203</v>
+      </c>
+      <c r="J15" s="5">
+        <v>501210</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>10000</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="4" t="s">
-        <v>29</v>
+      <c r="D16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="9">
+        <v>110000</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>10100</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="4" t="s">
-        <v>29</v>
+      <c r="D17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="9">
+        <v>110100</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10" t="s">
-        <v>88</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>10200</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="9">
+        <v>110200</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>10300</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="9">
+        <v>110300</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>10400</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="9">
+        <v>110400</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D17 F4:H17" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataGenerator/XLSXS/CharData.xlsx
+++ b/DataGenerator/XLSXS/CharData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunja\Documents\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F95B84-B742-4A61-90A7-598F085556EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD125E68-FE6C-4D26-8885-B2E78E73CD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t>charID</t>
   </si>
@@ -258,6 +258,10 @@
   </si>
   <si>
     <t>Monster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +644,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1167,7 +1171,9 @@
       <c r="B16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="D16" s="9" t="s">
         <v>23</v>
       </c>

--- a/DataGenerator/XLSXS/CharData.xlsx
+++ b/DataGenerator/XLSXS/CharData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BE19B5-258F-470D-82F8-604EE89A917F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB751A9E-ECE1-4925-AFA6-F0BBC725F399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>UNIQUE</t>
   </si>
   <si>
-    <t>SHIELD</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
   </si>
   <si>
     <t>샤나</t>
-  </si>
-  <si>
-    <t>DUAL_BALDE</t>
   </si>
   <si>
     <t>엠마</t>
@@ -266,6 +260,13 @@
   <si>
     <t>NORMAL</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARMOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUAL_BLADE</t>
   </si>
 </sst>
 </file>
@@ -618,7 +619,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -645,13 +646,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -672,7 +673,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -686,13 +687,13 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>14</v>
@@ -704,10 +705,10 @@
         <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
@@ -725,22 +726,22 @@
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
@@ -763,13 +764,13 @@
         <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F4" s="4">
         <v>100100</v>
@@ -801,7 +802,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>22</v>
@@ -836,7 +837,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>30</v>
@@ -848,7 +849,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -861,16 +862,16 @@
         <v>400</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="F7" s="4">
         <v>100400</v>
@@ -879,7 +880,7 @@
         <v>23</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -892,13 +893,13 @@
         <v>500</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>22</v>
@@ -907,7 +908,7 @@
         <v>100500</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>24</v>
@@ -923,25 +924,25 @@
         <v>600</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="F9" s="6">
         <v>100600</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -949,30 +950,30 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>700</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="6">
         <v>100700</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -985,13 +986,13 @@
         <v>800</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>30</v>
@@ -1000,7 +1001,7 @@
         <v>100800</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>27</v>
@@ -1016,13 +1017,13 @@
         <v>900</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>30</v>
@@ -1031,7 +1032,7 @@
         <v>100900</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>24</v>
@@ -1047,25 +1048,25 @@
         <v>1000</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="4">
         <v>101000</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -1078,13 +1079,13 @@
         <v>1100</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>30</v>
@@ -1093,10 +1094,10 @@
         <v>101100</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1109,13 +1110,13 @@
         <v>1200</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>22</v>
@@ -1124,7 +1125,7 @@
         <v>101200</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>27</v>
@@ -1140,13 +1141,13 @@
         <v>10000</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>22</v>
@@ -1169,13 +1170,13 @@
         <v>10100</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>22</v>
@@ -1198,16 +1199,16 @@
         <v>10200</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="8">
         <v>110200</v>
@@ -1225,16 +1226,16 @@
         <v>10300</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="8">
         <v>110300</v>
@@ -1252,16 +1253,16 @@
         <v>10400</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="8">
         <v>110400</v>

--- a/DataGenerator/XLSXS/CharData.xlsx
+++ b/DataGenerator/XLSXS/CharData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB751A9E-ECE1-4925-AFA6-F0BBC725F399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D9F083-2B77-43E2-BD12-59354E854234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7770" yWindow="720" windowWidth="18600" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -215,9 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비비안_Prefab</t>
-  </si>
-  <si>
     <t>그레이스_Prefab</t>
   </si>
   <si>
@@ -267,13 +264,35 @@
   </si>
   <si>
     <t>DUAL_BLADE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비비안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Prefab</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -298,6 +317,20 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="7">
@@ -365,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -398,6 +431,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -619,7 +655,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -767,10 +803,10 @@
         <v>63</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="F4" s="4">
         <v>100100</v>
@@ -785,7 +821,7 @@
       <c r="J4" s="5">
         <v>500100</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="5">
         <v>500110</v>
       </c>
       <c r="L4" s="5"/>
@@ -802,7 +838,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>22</v>
@@ -817,10 +853,10 @@
         <v>27</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="11">
+      <c r="J5" s="5">
         <v>500200</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="5">
         <v>500210</v>
       </c>
       <c r="L5" s="5"/>
@@ -849,11 +885,15 @@
         <v>23</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="5">
+        <v>500300</v>
+      </c>
+      <c r="K6" s="5">
+        <v>500310</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
@@ -883,20 +923,24 @@
         <v>34</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="5">
+        <v>500400</v>
+      </c>
+      <c r="K7" s="5">
+        <v>500410</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>500</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>64</v>
+      <c r="C8" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>61</v>
@@ -914,8 +958,12 @@
         <v>24</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="J8" s="7">
+        <v>500500</v>
+      </c>
+      <c r="K8" s="7">
+        <v>500510</v>
+      </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
@@ -927,7 +975,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>61</v>
@@ -945,8 +993,12 @@
         <v>34</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="J9" s="7">
+        <v>500600</v>
+      </c>
+      <c r="K9" s="7">
+        <v>500610</v>
+      </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
@@ -958,7 +1010,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>61</v>
@@ -973,11 +1025,15 @@
         <v>36</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="J10" s="7">
+        <v>500700</v>
+      </c>
+      <c r="K10" s="7">
+        <v>500710</v>
+      </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
@@ -989,7 +1045,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>61</v>
@@ -1007,8 +1063,12 @@
         <v>27</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="J11" s="7">
+        <v>500800</v>
+      </c>
+      <c r="K11" s="7">
+        <v>500810</v>
+      </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
@@ -1020,7 +1080,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>61</v>
@@ -1051,7 +1111,7 @@
         <v>43</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>61</v>
@@ -1082,7 +1142,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>61</v>
@@ -1097,7 +1157,7 @@
         <v>42</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1113,7 +1173,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>61</v>
@@ -1144,7 +1204,7 @@
         <v>50</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>62</v>
@@ -1158,7 +1218,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="11">
+      <c r="J16" s="10">
         <v>510000</v>
       </c>
       <c r="K16" s="9"/>
@@ -1173,7 +1233,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>62</v>
@@ -1202,7 +1262,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>62</v>
@@ -1216,8 +1276,12 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="J18" s="10">
+        <v>510200</v>
+      </c>
+      <c r="K18" s="10">
+        <v>510210</v>
+      </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
     </row>
@@ -1229,7 +1293,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>62</v>
@@ -1243,8 +1307,12 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="J19" s="10">
+        <v>510300</v>
+      </c>
+      <c r="K19" s="10">
+        <v>510310</v>
+      </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
     </row>
@@ -1256,7 +1324,7 @@
         <v>54</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>62</v>
@@ -1270,8 +1338,12 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="J20" s="10">
+        <v>510400</v>
+      </c>
+      <c r="K20" s="10">
+        <v>510410</v>
+      </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
     </row>

--- a/DataGenerator/XLSXS/CharData.xlsx
+++ b/DataGenerator/XLSXS/CharData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D9F083-2B77-43E2-BD12-59354E854234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C53277E-F73A-43CA-98D1-B774C9E4108F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7770" yWindow="720" windowWidth="18600" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="90">
   <si>
     <t>charID</t>
   </si>
@@ -145,19 +145,7 @@
     <t>엠마</t>
   </si>
   <si>
-    <t>베이</t>
-  </si>
-  <si>
     <t>QUANTUM_WASHER</t>
-  </si>
-  <si>
-    <t>키</t>
-  </si>
-  <si>
-    <t>럼</t>
-  </si>
-  <si>
-    <t>마이</t>
   </si>
   <si>
     <t>기본스텟</t>
@@ -249,18 +237,6 @@
   </si>
   <si>
     <t>지원봇 S1_Prefab</t>
-  </si>
-  <si>
-    <t>ALLY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NORMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARMOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DUAL_BLADE</t>
@@ -287,12 +263,135 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>SHIELD</t>
+  </si>
+  <si>
+    <t>유나</t>
+  </si>
+  <si>
+    <t>리사</t>
+  </si>
+  <si>
+    <t>나츠키</t>
+  </si>
+  <si>
+    <t>아메</t>
+  </si>
+  <si>
+    <t>루비카</t>
+  </si>
+  <si>
+    <t>TIDY</t>
+  </si>
+  <si>
+    <t>아델</t>
+  </si>
+  <si>
+    <t>LEGEND</t>
+  </si>
+  <si>
+    <t>이시스</t>
+  </si>
+  <si>
+    <t>MECHA TIDY</t>
+  </si>
+  <si>
+    <t>TEAM3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>루비카</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Prefab</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아델</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Prefab</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이시스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Prefab</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="3"/>
+      </rPr>
+      <t>MECHATIDY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Prefab</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -330,6 +429,26 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -371,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -394,11 +513,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -409,19 +539,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -430,8 +551,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -652,7 +787,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
@@ -662,8 +797,9 @@
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
@@ -672,34 +808,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -709,42 +845,42 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>48</v>
+      <c r="J2" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
@@ -752,34 +888,34 @@
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="G3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -799,14 +935,14 @@
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>76</v>
+      <c r="C4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4">
         <v>100100</v>
@@ -817,15 +953,15 @@
       <c r="H4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
         <v>500100</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>500110</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -834,11 +970,11 @@
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>76</v>
+      <c r="D5" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>22</v>
@@ -852,15 +988,15 @@
       <c r="H5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
         <v>500200</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>500210</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -869,11 +1005,11 @@
       <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>61</v>
+      <c r="D6" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>30</v>
@@ -885,17 +1021,17 @@
         <v>23</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5">
+        <v>74</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
         <v>500300</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>500310</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -904,11 +1040,11 @@
       <c r="B7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>61</v>
+      <c r="D7" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>33</v>
@@ -922,168 +1058,168 @@
       <c r="H7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
         <v>500400</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>500410</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>500</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="5">
+        <v>100500</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5">
+        <v>500500</v>
+      </c>
+      <c r="K8" s="5">
+        <v>500510</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>600</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="5">
+        <v>100600</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5">
+        <v>500600</v>
+      </c>
+      <c r="K9" s="5">
+        <v>500610</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>700</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="6">
-        <v>100500</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="D10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="5">
+        <v>100700</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7">
-        <v>500500</v>
-      </c>
-      <c r="K8" s="7">
-        <v>500510</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>600</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="6">
-        <v>100600</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="H10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5">
+        <v>500700</v>
+      </c>
+      <c r="K10" s="5">
+        <v>500710</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>800</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="5">
+        <v>100800</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7">
-        <v>500600</v>
-      </c>
-      <c r="K9" s="7">
-        <v>500610</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>700</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="6">
-        <v>100700</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7">
-        <v>500700</v>
-      </c>
-      <c r="K10" s="7">
-        <v>500710</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>800</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="6">
-        <v>100800</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5">
         <v>500800</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="5">
         <v>500810</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>900</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>61</v>
+        <v>75</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>30</v>
@@ -1092,29 +1228,31 @@
         <v>100900</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
+        <v>500900</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1000</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>33</v>
@@ -1123,29 +1261,31 @@
         <v>101000</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
+        <v>501000</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1100</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>61</v>
+        <v>77</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>30</v>
@@ -1154,29 +1294,31 @@
         <v>101100</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
+        <v>501100</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1200</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>61</v>
+        <v>78</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>22</v>
@@ -1185,167 +1327,427 @@
         <v>101200</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
+        <v>501200</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>1300</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="5">
+        <v>101300</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5">
+        <v>501300</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>1400</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="5">
+        <v>101400</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5">
+        <v>501400</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>1500</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="5">
+        <v>101500</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5">
+        <v>501500</v>
+      </c>
+      <c r="K18" s="7">
+        <v>510210</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>1600</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
+        <v>101600</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5">
+        <v>501600</v>
+      </c>
+      <c r="K19" s="7">
+        <v>510310</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>1601</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5">
+        <v>101601</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5">
+        <v>501601</v>
+      </c>
+      <c r="K20" s="7">
+        <v>510410</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>1602</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5">
+        <v>101602</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5">
+        <v>501602</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>1700</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4">
+        <v>101700</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4">
+        <v>501700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>1800</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4">
+        <v>101800</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
+        <v>501800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>1900</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4">
+        <v>101900</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4">
+        <v>501900</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4">
+        <v>102000</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4">
+        <v>502000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>10000</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="6">
+        <v>110000</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="7">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>10100</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="6">
+        <v>110100</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="7">
+        <v>510100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>10200</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="6">
+        <v>110200</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="7">
+        <v>510200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>10300</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="6">
+        <v>110300</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="7">
+        <v>510300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>10400</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="8">
-        <v>110000</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10">
-        <v>510000</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>10100</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="8">
-        <v>110100</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10">
-        <v>510100</v>
-      </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>10200</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="D30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="8">
-        <v>110200</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10">
-        <v>510200</v>
-      </c>
-      <c r="K18" s="10">
-        <v>510210</v>
-      </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>10300</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="8">
-        <v>110300</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10">
-        <v>510300</v>
-      </c>
-      <c r="K19" s="10">
-        <v>510310</v>
-      </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>10400</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="8">
+      <c r="F30" s="6">
         <v>110400</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="7">
         <v>510400</v>
       </c>
-      <c r="K20" s="10">
-        <v>510410</v>
-      </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataGenerator/XLSXS/CharData.xlsx
+++ b/DataGenerator/XLSXS/CharData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C53277E-F73A-43CA-98D1-B774C9E4108F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE21362D-FC53-4AED-9780-5F370CA8D9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -790,7 +790,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -963,7 +963,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>200</v>
       </c>
@@ -1103,7 +1103,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>600</v>
       </c>
@@ -1173,7 +1173,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>800</v>
       </c>
@@ -1435,13 +1435,11 @@
       <c r="J18" s="5">
         <v>501500</v>
       </c>
-      <c r="K18" s="7">
-        <v>510210</v>
-      </c>
+      <c r="K18" s="7"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>1600</v>
       </c>
@@ -1464,13 +1462,11 @@
       <c r="J19" s="5">
         <v>501600</v>
       </c>
-      <c r="K19" s="7">
-        <v>510310</v>
-      </c>
+      <c r="K19" s="7"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>1601</v>
       </c>
@@ -1493,9 +1489,7 @@
       <c r="J20" s="5">
         <v>501601</v>
       </c>
-      <c r="K20" s="7">
-        <v>510410</v>
-      </c>
+      <c r="K20" s="7"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
@@ -1696,6 +1690,9 @@
       <c r="J28" s="7">
         <v>510200</v>
       </c>
+      <c r="K28" s="7">
+        <v>510210</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
@@ -1722,6 +1719,9 @@
       <c r="J29" s="7">
         <v>510300</v>
       </c>
+      <c r="K29" s="7">
+        <v>510310</v>
+      </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
@@ -1747,6 +1747,9 @@
       <c r="I30" s="6"/>
       <c r="J30" s="7">
         <v>510400</v>
+      </c>
+      <c r="K30" s="7">
+        <v>510410</v>
       </c>
     </row>
   </sheetData>

--- a/DataGenerator/XLSXS/CharData.xlsx
+++ b/DataGenerator/XLSXS/CharData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE21362D-FC53-4AED-9780-5F370CA8D9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F78375-C559-441A-87DD-1D5CE914E94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7230" yWindow="1410" windowWidth="23040" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="151">
   <si>
     <t>charID</t>
   </si>
@@ -160,21 +160,6 @@
     <t>skill2</t>
   </si>
   <si>
-    <t>전투력측정기M</t>
-  </si>
-  <si>
-    <t>전투력측정기R</t>
-  </si>
-  <si>
-    <t>방어봇 D1</t>
-  </si>
-  <si>
-    <t>공격봇 A1</t>
-  </si>
-  <si>
-    <t>지원봇 S1</t>
-  </si>
-  <si>
     <t>캐릭터 타입</t>
   </si>
   <si>
@@ -199,199 +184,302 @@
     <t>ENEMY</t>
   </si>
   <si>
+    <t>DUAL_BLADE</t>
+  </si>
+  <si>
+    <t>SHIELD</t>
+  </si>
+  <si>
+    <t>유나</t>
+  </si>
+  <si>
+    <t>리사</t>
+  </si>
+  <si>
+    <t>나츠키</t>
+  </si>
+  <si>
+    <t>아메</t>
+  </si>
+  <si>
+    <t>루비카</t>
+  </si>
+  <si>
+    <t>TIDY</t>
+  </si>
+  <si>
+    <t>아델</t>
+  </si>
+  <si>
+    <t>LEGEND</t>
+  </si>
+  <si>
+    <t>이시스</t>
+  </si>
+  <si>
+    <t>TEAM3</t>
+  </si>
+  <si>
     <t>L_Prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그레이스_Prefab</t>
-  </si>
-  <si>
-    <t>샤나_Prefab</t>
-  </si>
-  <si>
-    <t>엠마_Prefab</t>
-  </si>
-  <si>
-    <t>베이_Prefab</t>
-  </si>
-  <si>
-    <t>키_Prefab</t>
-  </si>
-  <si>
-    <t>럼_Prefab</t>
-  </si>
-  <si>
-    <t>마이_Prefab</t>
-  </si>
-  <si>
-    <t>전투력측정기M_Prefab</t>
-  </si>
-  <si>
-    <t>전투력측정기R_Prefab</t>
-  </si>
-  <si>
-    <t>방어봇 D1_Prefab</t>
-  </si>
-  <si>
-    <t>공격봇 A1_Prefab</t>
-  </si>
-  <si>
-    <t>지원봇 S1_Prefab</t>
-  </si>
-  <si>
-    <t>DUAL_BLADE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비비안</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>_Prefab</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIELD</t>
-  </si>
-  <si>
-    <t>유나</t>
-  </si>
-  <si>
-    <t>리사</t>
-  </si>
-  <si>
-    <t>나츠키</t>
-  </si>
-  <si>
-    <t>아메</t>
-  </si>
-  <si>
-    <t>루비카</t>
-  </si>
-  <si>
-    <t>TIDY</t>
-  </si>
-  <si>
-    <t>아델</t>
-  </si>
-  <si>
-    <t>LEGEND</t>
-  </si>
-  <si>
-    <t>이시스</t>
-  </si>
-  <si>
-    <t>MECHA TIDY</t>
-  </si>
-  <si>
-    <t>TEAM3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>루비카</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>_Prefab</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아델</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>_Prefab</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이시스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>_Prefab</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t>MECHATIDY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>_Prefab</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0500110]</t>
+  </si>
+  <si>
+    <t>[0500210.0500211.0500212]</t>
+  </si>
+  <si>
+    <t>[0500310.0500311]</t>
+  </si>
+  <si>
+    <t>[0500410.0500411]</t>
+  </si>
+  <si>
+    <t>Vivian_Prefab</t>
+  </si>
+  <si>
+    <t>[0500510]</t>
+  </si>
+  <si>
+    <t>Grace_Prefab</t>
+  </si>
+  <si>
+    <t>[0500610.0500611]</t>
+  </si>
+  <si>
+    <t>Shannah_Prefab</t>
+  </si>
+  <si>
+    <t>[0500710]</t>
+  </si>
+  <si>
+    <t>Emma_Prefab</t>
+  </si>
+  <si>
+    <t>[0500810.0500811]</t>
+  </si>
+  <si>
+    <t>Yuna_Prefab</t>
+  </si>
+  <si>
+    <t>[0500910.0500911]</t>
+  </si>
+  <si>
+    <t>Lisa_Prefab</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[0601020]</t>
+  </si>
+  <si>
+    <t>Natsuki_Prefab</t>
+  </si>
+  <si>
+    <t>[0501110.0501111]</t>
+  </si>
+  <si>
+    <t>Ame_Prefab</t>
+  </si>
+  <si>
+    <t>[0501210.0501211]</t>
+  </si>
+  <si>
+    <t>Reubika_Prefab</t>
+  </si>
+  <si>
+    <t>[0501310.0501311]</t>
+  </si>
+  <si>
+    <t>Adele_Prefab</t>
+  </si>
+  <si>
+    <t>[0501410.0501411]</t>
+  </si>
+  <si>
+    <t>Isys_Prefab</t>
+  </si>
+  <si>
+    <t>[0501510]</t>
+  </si>
+  <si>
+    <t>메카:티디</t>
+  </si>
+  <si>
+    <t>MECHA:TIDY_Prefab</t>
+  </si>
+  <si>
+    <t>터틀</t>
+  </si>
+  <si>
+    <t>Turtle_Prefab</t>
+  </si>
+  <si>
+    <t>[0501710]</t>
+  </si>
+  <si>
+    <t>래빗</t>
+  </si>
+  <si>
+    <t>Rabbit_Prefab</t>
+  </si>
+  <si>
+    <t>[0501810]</t>
+  </si>
+  <si>
+    <t>갤럭시</t>
+  </si>
+  <si>
+    <t>Galaxy_Prefab</t>
+  </si>
+  <si>
+    <t>[0501910]</t>
+  </si>
+  <si>
+    <t>포시티아</t>
+  </si>
+  <si>
+    <t>Forsythia_Prefab</t>
+  </si>
+  <si>
+    <t>[0502010]</t>
+  </si>
+  <si>
+    <t>0000100</t>
+  </si>
+  <si>
+    <t>0000200</t>
+  </si>
+  <si>
+    <t>0000300</t>
+  </si>
+  <si>
+    <t>0000400</t>
+  </si>
+  <si>
+    <t>0000500</t>
+  </si>
+  <si>
+    <t>0000600</t>
+  </si>
+  <si>
+    <t>0000700</t>
+  </si>
+  <si>
+    <t>0000800</t>
+  </si>
+  <si>
+    <t>0000900</t>
+  </si>
+  <si>
+    <t>0001000</t>
+  </si>
+  <si>
+    <t>0001100</t>
+  </si>
+  <si>
+    <t>0001200</t>
+  </si>
+  <si>
+    <t>0001300</t>
+  </si>
+  <si>
+    <t>0001400</t>
+  </si>
+  <si>
+    <t>0001500</t>
+  </si>
+  <si>
+    <t>0001600</t>
+  </si>
+  <si>
+    <t>0001601</t>
+  </si>
+  <si>
+    <t>0001602</t>
+  </si>
+  <si>
+    <t>0001700</t>
+  </si>
+  <si>
+    <t>0001800</t>
+  </si>
+  <si>
+    <t>0001900</t>
+  </si>
+  <si>
+    <t>0002000</t>
+  </si>
+  <si>
+    <t>0000101</t>
+  </si>
+  <si>
+    <t>0000201</t>
+  </si>
+  <si>
+    <t>0000301</t>
+  </si>
+  <si>
+    <t>0000401</t>
+  </si>
+  <si>
+    <t>0000501</t>
+  </si>
+  <si>
+    <t>0000601</t>
+  </si>
+  <si>
+    <t>0000701</t>
+  </si>
+  <si>
+    <t>0000801</t>
+  </si>
+  <si>
+    <t>0000901</t>
+  </si>
+  <si>
+    <t>0001001</t>
+  </si>
+  <si>
+    <t>0001101</t>
+  </si>
+  <si>
+    <t>0001201</t>
+  </si>
+  <si>
+    <t>0001301</t>
+  </si>
+  <si>
+    <t>0001401</t>
+  </si>
+  <si>
+    <t>0001501</t>
+  </si>
+  <si>
+    <t>0001701</t>
+  </si>
+  <si>
+    <t>0001801</t>
+  </si>
+  <si>
+    <t>0001901</t>
+  </si>
+  <si>
+    <t>0002001</t>
+  </si>
+  <si>
+    <t>0002101</t>
+  </si>
+  <si>
+    <t>0002201</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -417,42 +505,8 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,18 +533,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFD0E0E3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -513,22 +561,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -542,31 +579,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -787,10 +809,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -808,34 +830,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -845,7 +867,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -859,7 +881,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>13</v>
@@ -888,34 +910,34 @@
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="G3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -929,17 +951,17 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>100</v>
+      <c r="A4" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>22</v>
@@ -957,15 +979,15 @@
       <c r="J4" s="4">
         <v>500100</v>
       </c>
-      <c r="K4" s="4">
-        <v>500110</v>
+      <c r="K4" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>200</v>
+    <row r="5" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>25</v>
@@ -974,7 +996,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>22</v>
@@ -992,15 +1014,15 @@
       <c r="J5" s="4">
         <v>500200</v>
       </c>
-      <c r="K5" s="4">
-        <v>500210</v>
+      <c r="K5" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>300</v>
+    <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>28</v>
@@ -1009,7 +1031,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>30</v>
@@ -1021,21 +1043,21 @@
         <v>23</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4">
         <v>500300</v>
       </c>
-      <c r="K6" s="4">
-        <v>500310</v>
+      <c r="K6" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>400</v>
+    <row r="7" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>31</v>
@@ -1044,7 +1066,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>33</v>
@@ -1062,164 +1084,164 @@
       <c r="J7" s="4">
         <v>500400</v>
       </c>
-      <c r="K7" s="4">
-        <v>500410</v>
+      <c r="K7" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>500</v>
-      </c>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4">
+        <v>100500</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
+        <v>500500</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="5">
-        <v>100500</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="D9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="4">
+        <v>100600</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5">
-        <v>500500</v>
-      </c>
-      <c r="K8" s="5">
-        <v>500510</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>600</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="5">
-        <v>100600</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
+        <v>500600</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="4">
+        <v>100700</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5">
-        <v>500600</v>
-      </c>
-      <c r="K9" s="5">
-        <v>500610</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>700</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="5">
-        <v>100700</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
+        <v>500700</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="4">
+        <v>100800</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5">
-        <v>500700</v>
-      </c>
-      <c r="K10" s="5">
-        <v>500710</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>800</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="5">
-        <v>100800</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
         <v>500800</v>
       </c>
-      <c r="K11" s="5">
-        <v>500810</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="K11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>900</v>
+      <c r="A12" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>30</v>
@@ -1237,22 +1259,24 @@
       <c r="J12" s="4">
         <v>500900</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>1000</v>
+      <c r="A13" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>33</v>
@@ -1270,22 +1294,26 @@
       <c r="J13" s="4">
         <v>501000</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>1100</v>
+      <c r="A14" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>30</v>
@@ -1297,28 +1325,30 @@
         <v>41</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4">
         <v>501100</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>1200</v>
+      <c r="A15" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>22</v>
@@ -1336,250 +1366,283 @@
       <c r="J15" s="4">
         <v>501200</v>
       </c>
-      <c r="K15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>1300</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="5" t="s">
+    <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>101300</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5">
+      <c r="G16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
         <v>501300</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>1400</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="K16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="4">
         <v>101400</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="G17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
         <v>501400</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>1500</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="K17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>101500</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="G18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
         <v>501500</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="K18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>1600</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5">
+      <c r="A19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4">
         <v>101600</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
         <v>501600</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>1601</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5">
+      <c r="A20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4">
         <v>101601</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4">
         <v>501601</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>1602</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5">
+      <c r="A21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4">
         <v>101602</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4">
         <v>501602</v>
       </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>1700</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="D22" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4">
         <v>101700</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4">
         <v>501700</v>
       </c>
+      <c r="K22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>1800</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="D23" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4">
         <v>101800</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4">
         <v>501800</v>
       </c>
+      <c r="K23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>1900</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="D24" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4">
         <v>101900</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>24</v>
@@ -1588,22 +1651,31 @@
       <c r="J24" s="4">
         <v>501900</v>
       </c>
+      <c r="K24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>2000</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="D25" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4">
         <v>102000</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>27</v>
@@ -1612,145 +1684,751 @@
       <c r="J25" s="4">
         <v>502000</v>
       </c>
+      <c r="K25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>10000</v>
+      <c r="A26" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="6">
-        <v>110000</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+        <v>100100</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="7">
-        <v>510000</v>
-      </c>
+      <c r="J26" s="6">
+        <v>500100</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>10100</v>
+      <c r="A27" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>58</v>
+        <v>26</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F27" s="6">
-        <v>110100</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+        <v>100200</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="I27" s="6"/>
-      <c r="J27" s="7">
-        <v>510100</v>
-      </c>
+      <c r="J27" s="6">
+        <v>500200</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>10200</v>
+      <c r="A28" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="6">
+        <v>100300</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6">
+        <v>500300</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="6">
-        <v>110200</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="7">
-        <v>510200</v>
-      </c>
-      <c r="K28" s="7">
-        <v>510210</v>
-      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>10300</v>
+      <c r="A29" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>58</v>
+        <v>32</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F29" s="6">
-        <v>110300</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+        <v>100400</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="7">
-        <v>510300</v>
-      </c>
-      <c r="K29" s="7">
-        <v>510310</v>
-      </c>
+      <c r="J29" s="6">
+        <v>500400</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>10400</v>
+      <c r="A30" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="6">
+        <v>100500</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6">
+        <v>500500</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="6">
+        <v>100600</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6">
+        <v>500600</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="6">
+        <v>100700</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6">
+        <v>500700</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="6">
+        <v>100800</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6">
+        <v>500800</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="6">
+        <v>100900</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6">
+        <v>500900</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="6">
+        <v>101000</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6">
+        <v>501000</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="C36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="6">
+        <v>101100</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6">
+        <v>501100</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="6">
+        <v>101200</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6">
+        <v>501200</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="6">
+        <v>101300</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6">
+        <v>501300</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="6">
+        <v>101400</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6">
+        <v>501400</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="6">
-        <v>110400</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="7">
-        <v>510400</v>
-      </c>
-      <c r="K30" s="7">
-        <v>510410</v>
-      </c>
+      <c r="F40" s="6">
+        <v>101500</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6">
+        <v>501500</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6">
+        <v>101600</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6">
+        <v>501600</v>
+      </c>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6">
+        <v>101601</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6">
+        <v>501601</v>
+      </c>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6">
+        <v>101602</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6">
+        <v>501602</v>
+      </c>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6">
+        <v>101700</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6">
+        <v>501700</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6">
+        <v>101800</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6">
+        <v>501800</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6">
+        <v>101900</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6">
+        <v>501900</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6">
+        <v>102000</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6">
+        <v>502000</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataGenerator/XLSXS/CharData.xlsx
+++ b/DataGenerator/XLSXS/CharData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F78375-C559-441A-87DD-1D5CE914E94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF2613F-DB21-488A-91BC-77617457BA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="1410" windowWidth="23040" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="152">
   <si>
     <t>charID</t>
   </si>
@@ -473,6 +473,10 @@
   </si>
   <si>
     <t>0002201</t>
+  </si>
+  <si>
+    <t>long[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -811,8 +815,8 @@
   </sheetPr>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -820,11 +824,11 @@
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -941,7 +945,7 @@
         <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>20</v>

--- a/DataGenerator/XLSXS/CharData.xlsx
+++ b/DataGenerator/XLSXS/CharData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF2613F-DB21-488A-91BC-77617457BA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2794206D-086C-4A9E-BA53-41B3C54DA43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4035" yWindow="1245" windowWidth="24720" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -286,9 +286,6 @@
     <t>[0501210.0501211]</t>
   </si>
   <si>
-    <t>Reubika_Prefab</t>
-  </si>
-  <si>
     <t>[0501310.0501311]</t>
   </si>
   <si>
@@ -476,6 +473,10 @@
   </si>
   <si>
     <t>long[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rubika_Prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,8 +816,8 @@
   </sheetPr>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -945,7 +946,7 @@
         <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>20</v>
@@ -956,7 +957,7 @@
     </row>
     <row r="4" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
@@ -989,9 +990,9 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>25</v>
@@ -1024,9 +1025,9 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>28</v>
@@ -1059,9 +1060,9 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>31</v>
@@ -1096,7 +1097,7 @@
     </row>
     <row r="8" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>35</v>
@@ -1129,9 +1130,9 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>37</v>
@@ -1166,7 +1167,7 @@
     </row>
     <row r="10" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>39</v>
@@ -1199,9 +1200,9 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>40</v>
@@ -1234,9 +1235,9 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>56</v>
@@ -1269,9 +1270,9 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>57</v>
@@ -1306,9 +1307,9 @@
       </c>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>58</v>
@@ -1341,9 +1342,9 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>59</v>
@@ -1376,15 +1377,15 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>52</v>
@@ -1406,20 +1407,20 @@
         <v>501300</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>52</v>
@@ -1441,20 +1442,20 @@
         <v>501400</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>52</v>
@@ -1476,20 +1477,20 @@
         <v>501500</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>52</v>
@@ -1510,13 +1511,13 @@
     </row>
     <row r="20" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>52</v>
@@ -1537,13 +1538,13 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>52</v>
@@ -1564,13 +1565,13 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>52</v>
@@ -1590,20 +1591,20 @@
         <v>501700</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>52</v>
@@ -1623,20 +1624,20 @@
         <v>501800</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>52</v>
@@ -1656,20 +1657,20 @@
         <v>501900</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>52</v>
@@ -1689,14 +1690,14 @@
         <v>502000</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>21</v>
@@ -1731,7 +1732,7 @@
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>25</v>
@@ -1766,7 +1767,7 @@
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>28</v>
@@ -1801,7 +1802,7 @@
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>31</v>
@@ -1836,7 +1837,7 @@
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>35</v>
@@ -1871,7 +1872,7 @@
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>37</v>
@@ -1906,7 +1907,7 @@
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>39</v>
@@ -1941,7 +1942,7 @@
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>40</v>
@@ -1976,7 +1977,7 @@
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>56</v>
@@ -2011,7 +2012,7 @@
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>57</v>
@@ -2048,7 +2049,7 @@
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>58</v>
@@ -2083,7 +2084,7 @@
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>59</v>
@@ -2118,13 +2119,13 @@
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>53</v>
@@ -2146,20 +2147,20 @@
         <v>501300</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>53</v>
@@ -2181,20 +2182,20 @@
         <v>501400</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>53</v>
@@ -2216,20 +2217,20 @@
         <v>501500</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>53</v>
@@ -2250,13 +2251,13 @@
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>53</v>
@@ -2277,13 +2278,13 @@
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>53</v>
@@ -2304,13 +2305,13 @@
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>53</v>
@@ -2330,20 +2331,20 @@
         <v>501700</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>53</v>
@@ -2363,20 +2364,20 @@
         <v>501800</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>53</v>
@@ -2396,20 +2397,20 @@
         <v>501900</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>53</v>
@@ -2429,7 +2430,7 @@
         <v>502000</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>

--- a/DataGenerator/XLSXS/CharData.xlsx
+++ b/DataGenerator/XLSXS/CharData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2794206D-086C-4A9E-BA53-41B3C54DA43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82379462-9EB8-46AB-A126-0BF74FD35151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="1245" windowWidth="24720" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="1875" windowWidth="24720" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="201">
   <si>
     <t>charID</t>
   </si>
@@ -301,12 +301,6 @@
     <t>[0501510]</t>
   </si>
   <si>
-    <t>메카:티디</t>
-  </si>
-  <si>
-    <t>MECHA:TIDY_Prefab</t>
-  </si>
-  <si>
     <t>터틀</t>
   </si>
   <si>
@@ -394,9 +388,6 @@
     <t>0001601</t>
   </si>
   <si>
-    <t>0001602</t>
-  </si>
-  <si>
     <t>0001700</t>
   </si>
   <si>
@@ -464,12 +455,6 @@
   </si>
   <si>
     <t>0002001</t>
-  </si>
-  <si>
-    <t>0002101</t>
-  </si>
-  <si>
-    <t>0002201</t>
   </si>
   <si>
     <t>long[]</t>
@@ -477,14 +462,291 @@
   </si>
   <si>
     <t>Rubika_Prefab</t>
+  </si>
+  <si>
+    <t>MECHA:TIDY1_Prefab</t>
+  </si>
+  <si>
+    <t>MECHA:TIDY2_Prefab</t>
+  </si>
+  <si>
+    <t>MECHA:TIDY3_Prefab</t>
+  </si>
+  <si>
+    <t>L_Enemy_Prefab</t>
+  </si>
+  <si>
+    <t>K_Enemy_Prefab</t>
+  </si>
+  <si>
+    <t>J_Enemy_Prefab</t>
+  </si>
+  <si>
+    <t>M_Enemy_Prefab</t>
+  </si>
+  <si>
+    <t>Vivian_Enemy_Prefab</t>
+  </si>
+  <si>
+    <t>Grace_Enemy_Prefab</t>
+  </si>
+  <si>
+    <t>Shannah_Enemy_Prefab</t>
+  </si>
+  <si>
+    <t>Emma_Enemy_Prefab</t>
+  </si>
+  <si>
+    <t>Yuna_Enemy_Prefab</t>
+  </si>
+  <si>
+    <t>Lisa_Enemy_Prefab</t>
+  </si>
+  <si>
+    <t>Natsuki_Enemy_Prefab</t>
+  </si>
+  <si>
+    <t>Ame_Enemy_Prefab</t>
+  </si>
+  <si>
+    <t>Rubika_Enemy_Prefab</t>
+  </si>
+  <si>
+    <t>Adele_Enemy_Prefab</t>
+  </si>
+  <si>
+    <t>Isys_Enemy_Prefab</t>
+  </si>
+  <si>
+    <t>MECHA:TIDY1_Enemy_Prefab</t>
+  </si>
+  <si>
+    <t>MECHA:TIDY2_Enemy_Prefab</t>
+  </si>
+  <si>
+    <t>MECHA:TIDY3_Enemy_Prefab</t>
+  </si>
+  <si>
+    <t>Turtle_Enemy_Prefab</t>
+  </si>
+  <si>
+    <t>Rabbit_Enemy_Prefab</t>
+  </si>
+  <si>
+    <t>Galaxy_Enemy_Prefab</t>
+  </si>
+  <si>
+    <t>Forsythia_Enemy_Prefab</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메카</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>티디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메카</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>티디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메카</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>티디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001611</t>
+  </si>
+  <si>
+    <t>0001621</t>
+  </si>
+  <si>
+    <t>0001610</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001620</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100100</t>
+  </si>
+  <si>
+    <t>0100200</t>
+  </si>
+  <si>
+    <t>0100300</t>
+  </si>
+  <si>
+    <t>0100400</t>
+  </si>
+  <si>
+    <t>0100500</t>
+  </si>
+  <si>
+    <t>0100600</t>
+  </si>
+  <si>
+    <t>0100700</t>
+  </si>
+  <si>
+    <t>0100800</t>
+  </si>
+  <si>
+    <t>0100900</t>
+  </si>
+  <si>
+    <t>0101000</t>
+  </si>
+  <si>
+    <t>0101100</t>
+  </si>
+  <si>
+    <t>0101200</t>
+  </si>
+  <si>
+    <t>0101300</t>
+  </si>
+  <si>
+    <t>0101400</t>
+  </si>
+  <si>
+    <t>0101500</t>
+  </si>
+  <si>
+    <t>0101600</t>
+  </si>
+  <si>
+    <t>0101610</t>
+  </si>
+  <si>
+    <t>0101620</t>
+  </si>
+  <si>
+    <t>0101700</t>
+  </si>
+  <si>
+    <t>0101800</t>
+  </si>
+  <si>
+    <t>0101900</t>
+  </si>
+  <si>
+    <t>0102000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -509,6 +771,20 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="6">
@@ -570,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -594,6 +870,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -816,15 +1098,15 @@
   </sheetPr>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -946,7 +1228,7 @@
         <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>20</v>
@@ -957,7 +1239,7 @@
     </row>
     <row r="4" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
@@ -971,8 +1253,8 @@
       <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4">
-        <v>100100</v>
+      <c r="F4" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>23</v>
@@ -992,7 +1274,7 @@
     </row>
     <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>25</v>
@@ -1006,8 +1288,8 @@
       <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="4">
-        <v>100200</v>
+      <c r="F5" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>23</v>
@@ -1027,7 +1309,7 @@
     </row>
     <row r="6" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>28</v>
@@ -1041,8 +1323,8 @@
       <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="4">
-        <v>100300</v>
+      <c r="F6" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>23</v>
@@ -1062,7 +1344,7 @@
     </row>
     <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>31</v>
@@ -1076,8 +1358,8 @@
       <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="4">
-        <v>100400</v>
+      <c r="F7" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>23</v>
@@ -1097,7 +1379,7 @@
     </row>
     <row r="8" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>35</v>
@@ -1111,8 +1393,8 @@
       <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="4">
-        <v>100500</v>
+      <c r="F8" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>36</v>
@@ -1132,7 +1414,7 @@
     </row>
     <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>37</v>
@@ -1146,8 +1428,8 @@
       <c r="E9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="4">
-        <v>100600</v>
+      <c r="F9" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>36</v>
@@ -1167,7 +1449,7 @@
     </row>
     <row r="10" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>39</v>
@@ -1181,8 +1463,8 @@
       <c r="E10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="4">
-        <v>100700</v>
+      <c r="F10" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>36</v>
@@ -1202,7 +1484,7 @@
     </row>
     <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>40</v>
@@ -1216,8 +1498,8 @@
       <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="4">
-        <v>100800</v>
+      <c r="F11" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>36</v>
@@ -1237,7 +1519,7 @@
     </row>
     <row r="12" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>56</v>
@@ -1251,8 +1533,8 @@
       <c r="E12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="4">
-        <v>100900</v>
+      <c r="F12" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>41</v>
@@ -1272,7 +1554,7 @@
     </row>
     <row r="13" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>57</v>
@@ -1286,8 +1568,8 @@
       <c r="E13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="4">
-        <v>101000</v>
+      <c r="F13" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>41</v>
@@ -1309,7 +1591,7 @@
     </row>
     <row r="14" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>58</v>
@@ -1323,8 +1605,8 @@
       <c r="E14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="4">
-        <v>101100</v>
+      <c r="F14" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>41</v>
@@ -1344,7 +1626,7 @@
     </row>
     <row r="15" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>59</v>
@@ -1358,8 +1640,8 @@
       <c r="E15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="4">
-        <v>101200</v>
+      <c r="F15" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>41</v>
@@ -1379,13 +1661,13 @@
     </row>
     <row r="16" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>52</v>
@@ -1393,8 +1675,8 @@
       <c r="E16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="4">
-        <v>101300</v>
+      <c r="F16" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>61</v>
@@ -1414,7 +1696,7 @@
     </row>
     <row r="17" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>62</v>
@@ -1428,8 +1710,8 @@
       <c r="E17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="4">
-        <v>101400</v>
+      <c r="F17" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>61</v>
@@ -1449,7 +1731,7 @@
     </row>
     <row r="18" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>64</v>
@@ -1463,8 +1745,8 @@
       <c r="E18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="4">
-        <v>101500</v>
+      <c r="F18" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>61</v>
@@ -1482,22 +1764,22 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>93</v>
+        <v>120</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="4">
-        <v>101600</v>
+      <c r="F19" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1509,22 +1791,22 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>93</v>
+        <v>177</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4">
-        <v>101601</v>
+      <c r="F20" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1536,22 +1818,22 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>93</v>
+        <v>178</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="4">
-        <v>101602</v>
+      <c r="F21" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1565,20 +1847,20 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="4">
-        <v>101700</v>
+      <c r="F22" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>65</v>
@@ -1591,27 +1873,27 @@
         <v>501700</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="4">
-        <v>101800</v>
+      <c r="F23" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>65</v>
@@ -1624,27 +1906,27 @@
         <v>501800</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="4">
-        <v>101900</v>
+      <c r="F24" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>65</v>
@@ -1657,27 +1939,27 @@
         <v>501900</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="4">
-        <v>102000</v>
+      <c r="F25" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>65</v>
@@ -1690,20 +1972,20 @@
         <v>502000</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>53</v>
@@ -1711,8 +1993,8 @@
       <c r="E26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="6">
-        <v>100100</v>
+      <c r="F26" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>23</v>
@@ -1732,13 +2014,13 @@
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>53</v>
@@ -1746,8 +2028,8 @@
       <c r="E27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="6">
-        <v>100200</v>
+      <c r="F27" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>23</v>
@@ -1767,13 +2049,13 @@
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>53</v>
@@ -1781,8 +2063,8 @@
       <c r="E28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="6">
-        <v>100300</v>
+      <c r="F28" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>23</v>
@@ -1802,13 +2084,13 @@
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>53</v>
@@ -1816,8 +2098,8 @@
       <c r="E29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="6">
-        <v>100400</v>
+      <c r="F29" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>23</v>
@@ -1837,13 +2119,13 @@
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>53</v>
@@ -1851,8 +2133,8 @@
       <c r="E30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="6">
-        <v>100500</v>
+      <c r="F30" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>36</v>
@@ -1872,13 +2154,13 @@
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>53</v>
@@ -1886,8 +2168,8 @@
       <c r="E31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="6">
-        <v>100600</v>
+      <c r="F31" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>36</v>
@@ -1907,13 +2189,13 @@
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>53</v>
@@ -1921,8 +2203,8 @@
       <c r="E32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="6">
-        <v>100700</v>
+      <c r="F32" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>36</v>
@@ -1942,13 +2224,13 @@
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>53</v>
@@ -1956,8 +2238,8 @@
       <c r="E33" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="6">
-        <v>100800</v>
+      <c r="F33" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>36</v>
@@ -1977,13 +2259,13 @@
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>53</v>
@@ -1991,8 +2273,8 @@
       <c r="E34" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="6">
-        <v>100900</v>
+      <c r="F34" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>41</v>
@@ -2012,13 +2294,13 @@
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>53</v>
@@ -2026,8 +2308,8 @@
       <c r="E35" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="6">
-        <v>101000</v>
+      <c r="F35" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>41</v>
@@ -2049,13 +2331,13 @@
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>53</v>
@@ -2063,8 +2345,8 @@
       <c r="E36" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="6">
-        <v>101100</v>
+      <c r="F36" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>41</v>
@@ -2084,13 +2366,13 @@
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>53</v>
@@ -2098,8 +2380,8 @@
       <c r="E37" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="6">
-        <v>101200</v>
+      <c r="F37" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>41</v>
@@ -2119,13 +2401,13 @@
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>53</v>
@@ -2133,8 +2415,8 @@
       <c r="E38" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="6">
-        <v>101300</v>
+      <c r="F38" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>61</v>
@@ -2154,13 +2436,13 @@
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>53</v>
@@ -2168,8 +2450,8 @@
       <c r="E39" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="6">
-        <v>101400</v>
+      <c r="F39" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>61</v>
@@ -2189,13 +2471,13 @@
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>53</v>
@@ -2203,8 +2485,8 @@
       <c r="E40" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F40" s="6">
-        <v>101500</v>
+      <c r="F40" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>61</v>
@@ -2222,22 +2504,22 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>93</v>
+        <v>121</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E41" s="6"/>
-      <c r="F41" s="6">
-        <v>101600</v>
+      <c r="F41" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -2249,22 +2531,22 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>93</v>
+        <v>175</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E42" s="6"/>
-      <c r="F42" s="6">
-        <v>101601</v>
+      <c r="F42" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -2276,22 +2558,22 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>93</v>
+        <v>176</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E43" s="6"/>
-      <c r="F43" s="6">
-        <v>101602</v>
+      <c r="F43" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -2305,20 +2587,20 @@
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="6"/>
-      <c r="F44" s="6">
-        <v>101700</v>
+      <c r="F44" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>65</v>
@@ -2331,27 +2613,27 @@
         <v>501700</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E45" s="6"/>
-      <c r="F45" s="6">
-        <v>101800</v>
+      <c r="F45" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>65</v>
@@ -2364,27 +2646,27 @@
         <v>501800</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E46" s="6"/>
-      <c r="F46" s="6">
-        <v>101900</v>
+      <c r="F46" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>65</v>
@@ -2397,27 +2679,27 @@
         <v>501900</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E47" s="6"/>
-      <c r="F47" s="6">
-        <v>102000</v>
+      <c r="F47" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>65</v>
@@ -2430,7 +2712,7 @@
         <v>502000</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>

--- a/DataGenerator/XLSXS/CharData.xlsx
+++ b/DataGenerator/XLSXS/CharData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82379462-9EB8-46AB-A126-0BF74FD35151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B50562A-E738-4CA3-A3D8-1FC545D5296F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="1875" windowWidth="24720" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3225" yWindow="2085" windowWidth="24720" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -226,15 +226,6 @@
     <t>[0500110]</t>
   </si>
   <si>
-    <t>[0500210.0500211.0500212]</t>
-  </si>
-  <si>
-    <t>[0500310.0500311]</t>
-  </si>
-  <si>
-    <t>[0500410.0500411]</t>
-  </si>
-  <si>
     <t>Vivian_Prefab</t>
   </si>
   <si>
@@ -244,9 +235,6 @@
     <t>Grace_Prefab</t>
   </si>
   <si>
-    <t>[0500610.0500611]</t>
-  </si>
-  <si>
     <t>Shannah_Prefab</t>
   </si>
   <si>
@@ -256,15 +244,9 @@
     <t>Emma_Prefab</t>
   </si>
   <si>
-    <t>[0500810.0500811]</t>
-  </si>
-  <si>
     <t>Yuna_Prefab</t>
   </si>
   <si>
-    <t>[0500910.0500911]</t>
-  </si>
-  <si>
     <t>Lisa_Prefab</t>
   </si>
   <si>
@@ -277,22 +259,10 @@
     <t>Natsuki_Prefab</t>
   </si>
   <si>
-    <t>[0501110.0501111]</t>
-  </si>
-  <si>
     <t>Ame_Prefab</t>
   </si>
   <si>
-    <t>[0501210.0501211]</t>
-  </si>
-  <si>
-    <t>[0501310.0501311]</t>
-  </si>
-  <si>
     <t>Adele_Prefab</t>
-  </si>
-  <si>
-    <t>[0501410.0501411]</t>
   </si>
   <si>
     <t>Isys_Prefab</t>
@@ -740,6 +710,36 @@
   </si>
   <si>
     <t>0102000</t>
+  </si>
+  <si>
+    <t>[0500210]</t>
+  </si>
+  <si>
+    <t>[0500310]</t>
+  </si>
+  <si>
+    <t>[0500410]</t>
+  </si>
+  <si>
+    <t>[0500610]</t>
+  </si>
+  <si>
+    <t>[0500810]</t>
+  </si>
+  <si>
+    <t>[0500910]</t>
+  </si>
+  <si>
+    <t>[0501110]</t>
+  </si>
+  <si>
+    <t>[0501210]</t>
+  </si>
+  <si>
+    <t>[0501310]</t>
+  </si>
+  <si>
+    <t>[0501410]</t>
   </si>
 </sst>
 </file>
@@ -1098,8 +1098,8 @@
   </sheetPr>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1228,7 +1228,7 @@
         <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>20</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="4" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
@@ -1254,7 +1254,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>23</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>25</v>
@@ -1289,7 +1289,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>23</v>
@@ -1302,14 +1302,14 @@
         <v>500200</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>28</v>
@@ -1324,7 +1324,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>23</v>
@@ -1337,14 +1337,14 @@
         <v>500300</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>31</v>
@@ -1359,7 +1359,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>23</v>
@@ -1372,20 +1372,20 @@
         <v>500400</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>52</v>
@@ -1394,7 +1394,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>36</v>
@@ -1407,20 +1407,20 @@
         <v>500500</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>52</v>
@@ -1429,7 +1429,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>36</v>
@@ -1442,20 +1442,20 @@
         <v>500600</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>52</v>
@@ -1464,7 +1464,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>36</v>
@@ -1477,20 +1477,20 @@
         <v>500700</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>52</v>
@@ -1499,7 +1499,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>36</v>
@@ -1512,20 +1512,20 @@
         <v>500800</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>52</v>
@@ -1534,7 +1534,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>41</v>
@@ -1547,20 +1547,20 @@
         <v>500900</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>52</v>
@@ -1569,7 +1569,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>41</v>
@@ -1582,22 +1582,22 @@
         <v>501000</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>52</v>
@@ -1606,7 +1606,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>41</v>
@@ -1619,20 +1619,20 @@
         <v>501100</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>52</v>
@@ -1641,7 +1641,7 @@
         <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>41</v>
@@ -1654,20 +1654,20 @@
         <v>501200</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>52</v>
@@ -1676,7 +1676,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>61</v>
@@ -1689,20 +1689,20 @@
         <v>501300</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>52</v>
@@ -1711,7 +1711,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>61</v>
@@ -1724,20 +1724,20 @@
         <v>501400</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>52</v>
@@ -1746,7 +1746,7 @@
         <v>33</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>61</v>
@@ -1759,27 +1759,27 @@
         <v>501500</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1793,20 +1793,20 @@
     </row>
     <row r="20" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1820,20 +1820,20 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1847,20 +1847,20 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>65</v>
@@ -1873,27 +1873,27 @@
         <v>501700</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>65</v>
@@ -1906,27 +1906,27 @@
         <v>501800</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>65</v>
@@ -1939,27 +1939,27 @@
         <v>501900</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>65</v>
@@ -1972,20 +1972,20 @@
         <v>502000</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>53</v>
@@ -1994,7 +1994,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>23</v>
@@ -2014,13 +2014,13 @@
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>53</v>
@@ -2029,7 +2029,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>23</v>
@@ -2042,20 +2042,20 @@
         <v>500200</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>53</v>
@@ -2064,7 +2064,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>23</v>
@@ -2077,20 +2077,20 @@
         <v>500300</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>53</v>
@@ -2099,7 +2099,7 @@
         <v>33</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>23</v>
@@ -2112,20 +2112,20 @@
         <v>500400</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>53</v>
@@ -2134,7 +2134,7 @@
         <v>22</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>36</v>
@@ -2147,20 +2147,20 @@
         <v>500500</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>53</v>
@@ -2169,7 +2169,7 @@
         <v>38</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>36</v>
@@ -2182,20 +2182,20 @@
         <v>500600</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>53</v>
@@ -2204,7 +2204,7 @@
         <v>33</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>36</v>
@@ -2217,20 +2217,20 @@
         <v>500700</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>53</v>
@@ -2239,7 +2239,7 @@
         <v>30</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>36</v>
@@ -2252,20 +2252,20 @@
         <v>500800</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>53</v>
@@ -2274,7 +2274,7 @@
         <v>30</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>41</v>
@@ -2287,20 +2287,20 @@
         <v>500900</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>53</v>
@@ -2309,7 +2309,7 @@
         <v>33</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>41</v>
@@ -2322,22 +2322,22 @@
         <v>501000</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M35" s="6"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>53</v>
@@ -2346,7 +2346,7 @@
         <v>30</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>41</v>
@@ -2359,20 +2359,20 @@
         <v>501100</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>53</v>
@@ -2381,7 +2381,7 @@
         <v>22</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>41</v>
@@ -2394,20 +2394,20 @@
         <v>501200</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>53</v>
@@ -2416,7 +2416,7 @@
         <v>30</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>61</v>
@@ -2429,20 +2429,20 @@
         <v>501300</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>53</v>
@@ -2451,7 +2451,7 @@
         <v>63</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>61</v>
@@ -2464,20 +2464,20 @@
         <v>501400</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>53</v>
@@ -2486,7 +2486,7 @@
         <v>33</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>61</v>
@@ -2499,27 +2499,27 @@
         <v>501500</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="8" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -2533,20 +2533,20 @@
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="8" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -2560,20 +2560,20 @@
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="8" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -2587,20 +2587,20 @@
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="8" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>65</v>
@@ -2613,27 +2613,27 @@
         <v>501700</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="8" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>65</v>
@@ -2646,27 +2646,27 @@
         <v>501800</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="8" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>65</v>
@@ -2679,27 +2679,27 @@
         <v>501900</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="8" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>65</v>
@@ -2712,7 +2712,7 @@
         <v>502000</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>

--- a/DataGenerator/XLSXS/CharData.xlsx
+++ b/DataGenerator/XLSXS/CharData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B50562A-E738-4CA3-A3D8-1FC545D5296F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF03173-FFC4-44FF-85A2-9D3F6C0769E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="2085" windowWidth="24720" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="202">
   <si>
     <t>charID</t>
   </si>
@@ -740,6 +740,10 @@
   </si>
   <si>
     <t>[0501410]</t>
+  </si>
+  <si>
+    <t>[0500810.0500820]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1098,8 +1102,8 @@
   </sheetPr>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K47"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1512,7 +1516,7 @@
         <v>500800</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>

--- a/DataGenerator/XLSXS/CharData.xlsx
+++ b/DataGenerator/XLSXS/CharData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF03173-FFC4-44FF-85A2-9D3F6C0769E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C9B3FF-E248-4325-817A-C6F3A2FC923F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="203">
   <si>
     <t>charID</t>
   </si>
@@ -275,9 +275,6 @@
   </si>
   <si>
     <t>Turtle_Prefab</t>
-  </si>
-  <si>
-    <t>[0501710]</t>
   </si>
   <si>
     <t>래빗</t>
@@ -743,6 +740,14 @@
   </si>
   <si>
     <t>[0500810.0500820]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[601710]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1102,8 +1107,8 @@
   </sheetPr>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1232,7 +1237,7 @@
         <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>20</v>
@@ -1243,7 +1248,7 @@
     </row>
     <row r="4" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
@@ -1258,7 +1263,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>23</v>
@@ -1278,7 +1283,7 @@
     </row>
     <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>25</v>
@@ -1293,7 +1298,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>23</v>
@@ -1306,14 +1311,14 @@
         <v>500200</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>28</v>
@@ -1328,7 +1333,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>23</v>
@@ -1341,14 +1346,14 @@
         <v>500300</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>31</v>
@@ -1363,7 +1368,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>23</v>
@@ -1376,14 +1381,14 @@
         <v>500400</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>35</v>
@@ -1398,7 +1403,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>36</v>
@@ -1418,7 +1423,7 @@
     </row>
     <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>37</v>
@@ -1433,7 +1438,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>36</v>
@@ -1446,14 +1451,14 @@
         <v>500600</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>39</v>
@@ -1468,7 +1473,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>36</v>
@@ -1488,7 +1493,7 @@
     </row>
     <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>40</v>
@@ -1503,7 +1508,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>36</v>
@@ -1516,14 +1521,14 @@
         <v>500800</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>56</v>
@@ -1538,7 +1543,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>41</v>
@@ -1551,14 +1556,14 @@
         <v>500900</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>57</v>
@@ -1573,7 +1578,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>41</v>
@@ -1595,7 +1600,7 @@
     </row>
     <row r="14" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>58</v>
@@ -1610,7 +1615,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>41</v>
@@ -1623,14 +1628,14 @@
         <v>501100</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>59</v>
@@ -1645,7 +1650,7 @@
         <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>41</v>
@@ -1658,20 +1663,20 @@
         <v>501200</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>52</v>
@@ -1680,7 +1685,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>61</v>
@@ -1693,14 +1698,14 @@
         <v>501300</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>62</v>
@@ -1715,7 +1720,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>61</v>
@@ -1728,14 +1733,14 @@
         <v>501400</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>64</v>
@@ -1750,7 +1755,7 @@
         <v>33</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>61</v>
@@ -1770,20 +1775,20 @@
     </row>
     <row r="19" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1797,20 +1802,20 @@
     </row>
     <row r="20" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1824,20 +1829,20 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1851,7 +1856,7 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>83</v>
@@ -1864,7 +1869,7 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>65</v>
@@ -1873,31 +1878,31 @@
         <v>55</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="4">
-        <v>501700</v>
-      </c>
+      <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="L22" s="4"/>
+        <v>201</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>65</v>
@@ -1910,27 +1915,27 @@
         <v>501800</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>65</v>
@@ -1943,27 +1948,27 @@
         <v>501900</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>65</v>
@@ -1976,20 +1981,20 @@
         <v>502000</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>53</v>
@@ -1998,7 +2003,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>23</v>
@@ -2018,13 +2023,13 @@
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>53</v>
@@ -2033,7 +2038,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>23</v>
@@ -2046,20 +2051,20 @@
         <v>500200</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>53</v>
@@ -2068,7 +2073,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>23</v>
@@ -2081,20 +2086,20 @@
         <v>500300</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>53</v>
@@ -2103,7 +2108,7 @@
         <v>33</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>23</v>
@@ -2116,20 +2121,20 @@
         <v>500400</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>53</v>
@@ -2138,7 +2143,7 @@
         <v>22</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>36</v>
@@ -2158,13 +2163,13 @@
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>53</v>
@@ -2173,7 +2178,7 @@
         <v>38</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>36</v>
@@ -2186,20 +2191,20 @@
         <v>500600</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>53</v>
@@ -2208,7 +2213,7 @@
         <v>33</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>36</v>
@@ -2228,13 +2233,13 @@
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>53</v>
@@ -2243,7 +2248,7 @@
         <v>30</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>36</v>
@@ -2256,20 +2261,20 @@
         <v>500800</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>53</v>
@@ -2278,7 +2283,7 @@
         <v>30</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>41</v>
@@ -2291,20 +2296,20 @@
         <v>500900</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>53</v>
@@ -2313,7 +2318,7 @@
         <v>33</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>41</v>
@@ -2335,13 +2340,13 @@
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>53</v>
@@ -2350,7 +2355,7 @@
         <v>30</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>41</v>
@@ -2363,20 +2368,20 @@
         <v>501100</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>53</v>
@@ -2385,7 +2390,7 @@
         <v>22</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>41</v>
@@ -2398,20 +2403,20 @@
         <v>501200</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>53</v>
@@ -2420,7 +2425,7 @@
         <v>30</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>61</v>
@@ -2433,20 +2438,20 @@
         <v>501300</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>53</v>
@@ -2455,7 +2460,7 @@
         <v>63</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>61</v>
@@ -2468,20 +2473,20 @@
         <v>501400</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>53</v>
@@ -2490,7 +2495,7 @@
         <v>33</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>61</v>
@@ -2510,20 +2515,20 @@
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -2537,20 +2542,20 @@
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -2564,20 +2569,20 @@
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -2591,20 +2596,20 @@
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>65</v>
@@ -2613,31 +2618,31 @@
         <v>55</v>
       </c>
       <c r="I44" s="6"/>
-      <c r="J44" s="6">
-        <v>501700</v>
-      </c>
+      <c r="J44" s="6"/>
       <c r="K44" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L44" s="6"/>
+        <v>201</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>202</v>
+      </c>
       <c r="M44" s="6"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>65</v>
@@ -2650,27 +2655,27 @@
         <v>501800</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>65</v>
@@ -2683,27 +2688,27 @@
         <v>501900</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>65</v>
@@ -2716,7 +2721,7 @@
         <v>502000</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>

--- a/DataGenerator/XLSXS/CharData.xlsx
+++ b/DataGenerator/XLSXS/CharData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C9B3FF-E248-4325-817A-C6F3A2FC923F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3850DCD4-00E0-46C0-98EA-ABBD9F48D36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -739,15 +739,15 @@
     <t>[0501410]</t>
   </si>
   <si>
-    <t>[0500810.0500820]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[601710]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0500810]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1107,8 +1107,8 @@
   </sheetPr>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1521,7 +1521,7 @@
         <v>500800</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -1880,10 +1880,10 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="M22" s="4"/>
     </row>
@@ -2620,10 +2620,10 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L44" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="M44" s="6"/>
     </row>

--- a/DataGenerator/XLSXS/CharData.xlsx
+++ b/DataGenerator/XLSXS/CharData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3850DCD4-00E0-46C0-98EA-ABBD9F48D36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2188F6DD-1A75-4ED6-9D92-3421AD4C6B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="2670" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -431,15 +431,6 @@
     <t>Rubika_Prefab</t>
   </si>
   <si>
-    <t>MECHA:TIDY1_Prefab</t>
-  </si>
-  <si>
-    <t>MECHA:TIDY2_Prefab</t>
-  </si>
-  <si>
-    <t>MECHA:TIDY3_Prefab</t>
-  </si>
-  <si>
     <t>L_Enemy_Prefab</t>
   </si>
   <si>
@@ -483,15 +474,6 @@
   </si>
   <si>
     <t>Isys_Enemy_Prefab</t>
-  </si>
-  <si>
-    <t>MECHA:TIDY1_Enemy_Prefab</t>
-  </si>
-  <si>
-    <t>MECHA:TIDY2_Enemy_Prefab</t>
-  </si>
-  <si>
-    <t>MECHA:TIDY3_Enemy_Prefab</t>
   </si>
   <si>
     <t>Turtle_Enemy_Prefab</t>
@@ -748,6 +730,30 @@
   </si>
   <si>
     <t>[0500810]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MECHA_TIDY1_Prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MECHA_TIDY2_Prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MECHA_TIDY3_Prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MECHA_TIDY1_Enemy_Prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MECHA_TIDY2_Enemy_Prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MECHA_TIDY3_Enemy_Prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1107,8 +1113,8 @@
   </sheetPr>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1263,7 +1269,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>23</v>
@@ -1298,7 +1304,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>23</v>
@@ -1311,7 +1317,7 @@
         <v>500200</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -1333,7 +1339,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>23</v>
@@ -1346,7 +1352,7 @@
         <v>500300</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -1368,7 +1374,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>23</v>
@@ -1381,7 +1387,7 @@
         <v>500400</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1403,7 +1409,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>36</v>
@@ -1438,7 +1444,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>36</v>
@@ -1451,7 +1457,7 @@
         <v>500600</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -1473,7 +1479,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>36</v>
@@ -1508,7 +1514,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>36</v>
@@ -1521,7 +1527,7 @@
         <v>500800</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -1543,7 +1549,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>41</v>
@@ -1556,7 +1562,7 @@
         <v>500900</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1578,7 +1584,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>41</v>
@@ -1615,7 +1621,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>41</v>
@@ -1628,7 +1634,7 @@
         <v>501100</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -1650,7 +1656,7 @@
         <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>41</v>
@@ -1663,7 +1669,7 @@
         <v>501200</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1685,7 +1691,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>61</v>
@@ -1698,7 +1704,7 @@
         <v>501300</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -1720,7 +1726,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>61</v>
@@ -1733,7 +1739,7 @@
         <v>501400</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -1755,7 +1761,7 @@
         <v>33</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>61</v>
@@ -1778,17 +1784,17 @@
         <v>109</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1802,20 +1808,20 @@
     </row>
     <row r="20" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1829,20 +1835,20 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1869,7 +1875,7 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>65</v>
@@ -1880,10 +1886,10 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M22" s="4"/>
     </row>
@@ -1902,7 +1908,7 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>65</v>
@@ -1935,7 +1941,7 @@
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>65</v>
@@ -1968,7 +1974,7 @@
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>65</v>
@@ -1994,7 +2000,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>53</v>
@@ -2003,7 +2009,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>23</v>
@@ -2029,7 +2035,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>53</v>
@@ -2038,7 +2044,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>23</v>
@@ -2051,7 +2057,7 @@
         <v>500200</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -2064,7 +2070,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>53</v>
@@ -2073,7 +2079,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>23</v>
@@ -2086,7 +2092,7 @@
         <v>500300</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -2099,7 +2105,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>53</v>
@@ -2108,7 +2114,7 @@
         <v>33</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>23</v>
@@ -2121,7 +2127,7 @@
         <v>500400</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -2134,7 +2140,7 @@
         <v>35</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>53</v>
@@ -2143,7 +2149,7 @@
         <v>22</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>36</v>
@@ -2169,7 +2175,7 @@
         <v>37</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>53</v>
@@ -2178,7 +2184,7 @@
         <v>38</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>36</v>
@@ -2191,7 +2197,7 @@
         <v>500600</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
@@ -2204,7 +2210,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>53</v>
@@ -2213,7 +2219,7 @@
         <v>33</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>36</v>
@@ -2239,7 +2245,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>53</v>
@@ -2248,7 +2254,7 @@
         <v>30</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>36</v>
@@ -2261,7 +2267,7 @@
         <v>500800</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
@@ -2274,7 +2280,7 @@
         <v>56</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>53</v>
@@ -2283,7 +2289,7 @@
         <v>30</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>41</v>
@@ -2296,7 +2302,7 @@
         <v>500900</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
@@ -2309,7 +2315,7 @@
         <v>57</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>53</v>
@@ -2318,7 +2324,7 @@
         <v>33</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>41</v>
@@ -2346,7 +2352,7 @@
         <v>58</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>53</v>
@@ -2355,7 +2361,7 @@
         <v>30</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>41</v>
@@ -2368,7 +2374,7 @@
         <v>501100</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
@@ -2381,7 +2387,7 @@
         <v>59</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>53</v>
@@ -2390,7 +2396,7 @@
         <v>22</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>41</v>
@@ -2403,7 +2409,7 @@
         <v>501200</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
@@ -2416,7 +2422,7 @@
         <v>60</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>53</v>
@@ -2425,7 +2431,7 @@
         <v>30</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>61</v>
@@ -2438,7 +2444,7 @@
         <v>501300</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
@@ -2451,7 +2457,7 @@
         <v>62</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>53</v>
@@ -2460,7 +2466,7 @@
         <v>63</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>61</v>
@@ -2473,7 +2479,7 @@
         <v>501400</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
@@ -2486,7 +2492,7 @@
         <v>64</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>53</v>
@@ -2495,7 +2501,7 @@
         <v>33</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>61</v>
@@ -2518,17 +2524,17 @@
         <v>110</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -2542,20 +2548,20 @@
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -2569,20 +2575,20 @@
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -2602,14 +2608,14 @@
         <v>83</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>65</v>
@@ -2620,10 +2626,10 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M44" s="6"/>
     </row>
@@ -2635,14 +2641,14 @@
         <v>85</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>65</v>
@@ -2668,14 +2674,14 @@
         <v>88</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>65</v>
@@ -2701,14 +2707,14 @@
         <v>91</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>65</v>

--- a/DataGenerator/XLSXS/CharData.xlsx
+++ b/DataGenerator/XLSXS/CharData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunja\Documents\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A416FC3-406C-4391-864B-C0644181FE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE58E69-94D0-4590-B76E-FEC8EBDCDE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="154">
   <si>
     <t>charID</t>
   </si>
@@ -479,6 +479,10 @@
   </si>
   <si>
     <t>MECHA:TIDY3_Enemy_Prefab</t>
+  </si>
+  <si>
+    <t>[501710]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -811,8 +815,8 @@
   </sheetPr>
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1666,11 +1670,9 @@
         <v>52</v>
       </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="3">
-        <v>501700</v>
-      </c>
+      <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>145</v>
@@ -2498,7 +2500,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>145</v>
